--- a/data/trans_bre/P32C-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Provincia-trans_bre.xlsx
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.384126315328141</v>
+        <v>-6.755688701221232</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.26870703432976</v>
+        <v>-10.45241265744982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.638106800245061</v>
+        <v>-7.077976079227854</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
@@ -684,21 +684,21 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.107932904490588</v>
+        <v>1.995240135551323</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.809590672622517</v>
+        <v>-1.980881928930703</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.115600086638778</v>
+        <v>1.501853896298848</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.5940115030557226</v>
+        <v>0.4046711046537634</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.631236378123043</v>
+        <v>1.177888504380068</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.216225016128694</v>
+        <v>-5.309256643124817</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.480638743391271</v>
+        <v>-3.682488459737696</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.483446513287914</v>
+        <v>-5.940672500887851</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.8974554202533171</v>
+        <v>-0.9036934498406418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.5741393412552569</v>
+        <v>-0.5856365562585309</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.201340957404143</v>
+        <v>-1.247970436077991</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -811,7 +811,7 @@
         <v>-0.1057899229989383</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.5134681757263163</v>
+        <v>-0.5134681757263162</v>
       </c>
     </row>
     <row r="11">
@@ -822,21 +822,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.636049821197738</v>
+        <v>-2.149069232469432</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>-1.790779101772789</v>
+        <v>-1.826264261670179</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.598988473215379</v>
+        <v>-3.613950177361153</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -850,17 +848,15 @@
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>2.445529618458302</v>
+        <v>2.377187514834894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.332615036767951</v>
+        <v>1.288923949087597</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="6" t="n">
-        <v>1.613100686523495</v>
-      </c>
+      <c r="J12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -904,14 +900,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.008242611833672</v>
+        <v>-4.277744129452392</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.172970407752704</v>
+        <v>-5.031080854227189</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>-2.417326724018712</v>
+        <v>-2.349230983938407</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -926,14 +922,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.347297163708333</v>
+        <v>1.908616948591973</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.5388553666025548</v>
+        <v>-0.5239114144309527</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>1.072983235855421</v>
+        <v>1.063709319737731</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -961,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>2.793662205196418</v>
@@ -984,10 +980,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.84002198062827</v>
+        <v>-1.829795037705314</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.639786626042181</v>
+        <v>-6.393709455835944</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
@@ -1006,14 +1002,14 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.27732024246253</v>
+        <v>16.50460009730508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7151064951515905</v>
+        <v>-0.7152574448294948</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1064,21 +1060,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.93901091955894</v>
+        <v>-1.95238905497381</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.866880649166299</v>
+        <v>-2.790353730022213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.69460496759166</v>
+        <v>-2.540580813792017</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.127371706314433</v>
+        <v>-2.17146585778464</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
-      <c r="J20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1088,7 +1086,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.791426039589489</v>
+        <v>2.759803228559653</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
@@ -1097,12 +1095,14 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.432931212518182</v>
+        <v>3.994339816609314</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
-      <c r="J21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="n">
+        <v>6.758268870792833</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1125,7 +1125,7 @@
         <v>-2.073542005283044</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9220190521497356</v>
+        <v>0.9220190521497345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1137,7 +1137,7 @@
         <v>-0.8428825515673189</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4609584115106459</v>
+        <v>0.4609584115106453</v>
       </c>
     </row>
     <row r="23">
@@ -1148,16 +1148,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.193024849361322</v>
+        <v>-4.855831324878497</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.603045022785299</v>
+        <v>-3.35521859043906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.013262735247089</v>
+        <v>-4.070234902332556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.730839284044356</v>
+        <v>-1.707322508383496</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
@@ -1167,7 +1167,7 @@
         <v>-1</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.7284319083674169</v>
+        <v>-0.7518146382370748</v>
       </c>
     </row>
     <row r="24">
@@ -1178,26 +1178,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.186617468504163</v>
+        <v>-0.9432950697273614</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.219316626292351</v>
+        <v>0.006760664120447607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.4819667817948526</v>
+        <v>-0.4814996258664388</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.134768967091876</v>
+        <v>4.943257118781013</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>0.9653769927883433</v>
+        <v>0.947912077961265</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3617720422012544</v>
+        <v>0.4858856967561915</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>5.584798615603856</v>
+        <v>4.811520280349904</v>
       </c>
     </row>
     <row r="25">
@@ -1221,7 +1221,7 @@
         <v>-0.06765457242380452</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.9602736959955638</v>
+        <v>-0.960273695995564</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.09948233024649009</v>
@@ -1244,23 +1244,21 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.608089742397267</v>
+        <v>-1.617522373522893</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.949466473208619</v>
+        <v>-2.925256420064435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.406912384223668</v>
+        <v>-1.283296200209199</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.481980224600602</v>
+        <v>-2.702047515147258</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="inlineStr"/>
     </row>
@@ -1272,23 +1270,21 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.203625290011926</v>
+        <v>1.957431598902015</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2295555514991909</v>
+        <v>0.4704995627872939</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.735077791741407</v>
+        <v>1.711205023290208</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.2306661716800629</v>
+        <v>-0.2319687944191932</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.156449426352795</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>2.947652580253387</v>
-      </c>
+        <v>3.158389238503214</v>
+      </c>
+      <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="inlineStr"/>
     </row>
@@ -1313,7 +1309,7 @@
         <v>-1.063866621851007</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.09807643616023751</v>
+        <v>0.09807643616023767</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.5125030028333734</v>
@@ -1325,7 +1321,7 @@
         <v>-0.6594331129681192</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.08289009480301207</v>
+        <v>0.08289009480301224</v>
       </c>
     </row>
     <row r="29">
@@ -1336,28 +1332,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.750585886683936</v>
+        <v>-1.733869069517858</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.469220265593059</v>
+        <v>-2.509912536572148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.766353191845053</v>
+        <v>-1.878646759538111</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7236274875987712</v>
+        <v>-0.7535129974482381</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.8139889596664097</v>
+        <v>-0.8038372109913711</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.9573457185972294</v>
+        <v>-0.9592052328968736</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.8833777317657997</v>
+        <v>-0.9032478840835232</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.5334552663299705</v>
+        <v>-0.5451130344055698</v>
       </c>
     </row>
     <row r="30">
@@ -1368,28 +1364,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1399564633787552</v>
+        <v>0.1021196582867812</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9618199708187811</v>
+        <v>-1.034847960112007</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.4050634124900465</v>
+        <v>-0.334112517630875</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.411267927257998</v>
+        <v>1.203976476762935</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1515639717510883</v>
+        <v>0.09945184461141389</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.535100271467829</v>
+        <v>-0.4983020677356305</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.2154965001739956</v>
+        <v>-0.2295628204016172</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.522805554812262</v>
+        <v>1.424338016941796</v>
       </c>
     </row>
     <row r="31">
